--- a/data/Vietanm_electricity_statistics.xlsx
+++ b/data/Vietanm_electricity_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\mye500\projects\Map2Grid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF54CEA-49D4-4D4B-A554-70BBB01A26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD427A85-F2E6-47C1-9F38-063F4BF503AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1526" yWindow="10183" windowWidth="19543" windowHeight="12377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1526" yWindow="10183" windowWidth="19543" windowHeight="12377" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Installed_capacity" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F0D24-CCF2-4A85-8875-2CE1DB07434F}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13558E2-00A1-4977-A88F-59E267D57995}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,7 +3408,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="12">
-        <f>I18/$I$80*$C$80</f>
+        <f t="shared" ref="C18:C40" si="0">I18/$I$80*$C$80</f>
         <v>17667.596425966785</v>
       </c>
       <c r="D18" s="4">
@@ -3438,7 +3438,7 @@
         <v>67</v>
       </c>
       <c r="C19" s="12">
-        <f>I19/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>4255.0298829907761</v>
       </c>
       <c r="D19" s="4">
@@ -3468,7 +3468,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="12">
-        <f>I20/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>241.69078558094094</v>
       </c>
       <c r="D20" s="4">
@@ -3498,7 +3498,7 @@
         <v>69</v>
       </c>
       <c r="C21" s="12">
-        <f>I21/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>8423.5599058788994</v>
       </c>
       <c r="D21" s="4">
@@ -3528,7 +3528,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="12">
-        <f>I22/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>4117.6477522395044</v>
       </c>
       <c r="D22" s="4">
@@ -3558,7 +3558,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="12">
-        <f>I23/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>4509.4412362338717</v>
       </c>
       <c r="D23" s="4">
@@ -3588,7 +3588,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="12">
-        <f>I24/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>6093.1519101721424</v>
       </c>
       <c r="D24" s="4">
@@ -3618,7 +3618,7 @@
         <v>73</v>
       </c>
       <c r="C25" s="12">
-        <f>I25/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>3788.1850497896953</v>
       </c>
       <c r="D25" s="4">
@@ -3648,7 +3648,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="12">
-        <f>I26/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>454.12426553892584</v>
       </c>
       <c r="D26" s="4">
@@ -3678,7 +3678,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="12">
-        <f>I27/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>231.51433145121709</v>
       </c>
       <c r="D27" s="4">
@@ -3708,7 +3708,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="12">
-        <f>I28/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>2823.9660209983626</v>
       </c>
       <c r="D28" s="4">
@@ -3738,7 +3738,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="12">
-        <f>I29/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>9717.2416371200416</v>
       </c>
       <c r="D29" s="4">
@@ -3768,7 +3768,7 @@
         <v>78</v>
       </c>
       <c r="C30" s="12">
-        <f>I30/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>14496.358907791593</v>
       </c>
       <c r="D30" s="4">
@@ -3798,7 +3798,7 @@
         <v>79</v>
       </c>
       <c r="C31" s="12">
-        <f>I31/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>10902.798543232866</v>
       </c>
       <c r="D31" s="4">
@@ -3828,7 +3828,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="12">
-        <f>I32/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>11009.651311594967</v>
       </c>
       <c r="D32" s="4">
@@ -3858,7 +3858,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="12">
-        <f>I33/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>2077.2686992298763</v>
       </c>
       <c r="D33" s="4">
@@ -3888,7 +3888,7 @@
         <v>82</v>
       </c>
       <c r="C34" s="12">
-        <f>I34/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>3325.1563868872609</v>
       </c>
       <c r="D34" s="4">
@@ -3918,7 +3918,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="12">
-        <f>I35/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>8474.4421765275183</v>
       </c>
       <c r="D35" s="4">
@@ -3948,7 +3948,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="12">
-        <f>I36/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>1152.4834301912235</v>
       </c>
       <c r="D36" s="4">
@@ -3978,7 +3978,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="12">
-        <f>I37/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>465.57277643486515</v>
       </c>
       <c r="D37" s="4">
@@ -4008,7 +4008,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="12">
-        <f>I38/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>962.94697202511725</v>
       </c>
       <c r="D38" s="4">
@@ -4038,7 +4038,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="12">
-        <f>I39/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>465.57277643486515</v>
       </c>
       <c r="D39" s="4">
@@ -4068,7 +4068,7 @@
         <v>88</v>
       </c>
       <c r="C40" s="12">
-        <f>I40/$I$80*$C$80</f>
+        <f t="shared" si="0"/>
         <v>933.68966640216138</v>
       </c>
       <c r="D40" s="4">
@@ -4433,7 +4433,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="16">
-        <f>I55/$I$80*$C$80</f>
+        <f t="shared" ref="C55:C60" si="1">I55/$I$80*$C$80</f>
         <v>2252.8125329676127</v>
       </c>
       <c r="D55" s="4">
@@ -4463,7 +4463,7 @@
         <v>103</v>
       </c>
       <c r="C56" s="16">
-        <f>I56/$I$80*$C$80</f>
+        <f t="shared" si="1"/>
         <v>628.39604251044636</v>
       </c>
       <c r="D56" s="4">
@@ -4493,7 +4493,7 @@
         <v>104</v>
       </c>
       <c r="C57" s="16">
-        <f>I57/$I$80*$C$80</f>
+        <f t="shared" si="1"/>
         <v>480.83745762945091</v>
       </c>
       <c r="D57" s="4">
@@ -4523,7 +4523,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="16">
-        <f>I58/$I$80*$C$80</f>
+        <f t="shared" si="1"/>
         <v>93061.128902791985</v>
       </c>
       <c r="D58" s="6">
@@ -4553,7 +4553,7 @@
         <v>106</v>
       </c>
       <c r="C59" s="16">
-        <f>I59/$I$80*$C$80</f>
+        <f t="shared" si="1"/>
         <v>2447.4372181985809</v>
       </c>
       <c r="D59">
@@ -4583,7 +4583,7 @@
         <v>107</v>
       </c>
       <c r="C60" s="16">
-        <f>I60/$I$80*$C$80</f>
+        <f t="shared" si="1"/>
         <v>2893.9291431402139</v>
       </c>
       <c r="D60">
@@ -5127,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB65EAF5-A56E-4270-8472-89080845ECB0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Vietanm_electricity_statistics.xlsx
+++ b/data/Vietanm_electricity_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\mye500\projects\Map2Grid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD427A85-F2E6-47C1-9F38-063F4BF503AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F939AF1-9487-4E44-A8D6-0E2DA8B21B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1526" yWindow="10183" windowWidth="19543" windowHeight="12377" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Installed_capacity" sheetId="1" r:id="rId1"/>
@@ -952,13 +952,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>22077</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>146</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>62248</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>38617</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1286,16 +1286,16 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>145</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>72892</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>123177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>146</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1614,13 +1614,13 @@
         <v>245898</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>117675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>217546</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1806,13 +1806,13 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1917,12 +1917,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>20859</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>22077</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>7398</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>62248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>38617</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2301,12 +2301,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>72892</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>123177</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>34657</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>10897</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -2674,12 +2674,12 @@
         <v>245898</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>117675</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>217546</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2840,12 +2840,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2946,19 +2946,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13558E2-00A1-4977-A88F-59E267D57995}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1000</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1100</v>
       </c>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1110</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1120</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>1200</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>1300</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>1400</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>1500</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2000</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>118146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2100</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2101</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2102</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2103</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2104</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2105</v>
       </c>
@@ -3392,15 +3392,19 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2200</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
+        <f>SUM(C18:C40)</f>
+        <v>116589.09085071349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2201</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>13889</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2202</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2203</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2204</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2205</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2206</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2207</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2208</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>2209</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>2210</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>2211</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>2212</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>2213</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>11396</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>2214</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>2215</v>
       </c>
@@ -3850,7 +3854,7 @@
         <v>8655</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>2216</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>2217</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>2218</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>2219</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>2220</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>2221</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>2222</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>2223</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>2300</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>2301</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>2302</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>2303</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>2400</v>
       </c>
@@ -4197,7 +4201,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>2410</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>2420</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>2430</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>2500</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>13476</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>3000</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>3100</v>
       </c>
@@ -4356,7 +4360,7 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>3101</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>3102</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>3200</v>
       </c>
@@ -4425,7 +4429,7 @@
       </c>
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>3210</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>3220</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>3230</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>4000</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>4100</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>4300</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>4400</v>
       </c>
@@ -4614,7 +4618,7 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>4401</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>50753</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>4402</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>5000</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>5100</v>
       </c>
@@ -4713,7 +4717,7 @@
       </c>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>5101</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>5102</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>5103</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>5104</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>5200</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>5300</v>
       </c>
@@ -4872,7 +4876,7 @@
       </c>
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>5301</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>5302</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>5400</v>
       </c>
@@ -4941,7 +4945,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>5401</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>5402</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>5403</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>5404</v>
       </c>
@@ -5061,7 +5065,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>5500</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>126</v>
       </c>
@@ -5127,16 +5131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB65EAF5-A56E-4270-8472-89080845ECB0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>134</v>
       </c>

--- a/data/Vietanm_electricity_statistics.xlsx
+++ b/data/Vietanm_electricity_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\mye500\projects\Map2Grid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\BETA-IVM-BAZIS\mye500\projects\Map2Grid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F939AF1-9487-4E44-A8D6-0E2DA8B21B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A672C0-2C3C-462F-AD3C-21FF9AF39BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Installed_capacity" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Items</t>
   </si>
@@ -481,13 +481,16 @@
   </si>
   <si>
     <t>Biomass</t>
+  </si>
+  <si>
+    <t>Unit: GWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +549,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -618,8 +628,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +665,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="335108">
-          <cell r="P335108">
+        <row r="16">
+          <cell r="I16">
             <v>277.33</v>
           </cell>
         </row>
@@ -949,16 +966,16 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1028,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>22077</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>146</v>
       </c>
@@ -1141,7 +1158,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1184,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1201,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1224,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1247,7 @@
         <v>62248</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1253,7 +1270,7 @@
         <v>38617</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1289,13 +1306,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>145</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1364,7 @@
         <v>72892</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>123177</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1442,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>146</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1583,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1614,13 +1631,13 @@
         <v>245898</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1683,7 @@
         <v>117675</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1729,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1752,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>217546</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1806,13 +1823,13 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1875,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1881,7 +1898,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1913,16 +1930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F0D24-CCF2-4A85-8875-2CE1DB07434F}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1956,7 +1973,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1996,7 @@
         <v>20859</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2019,7 @@
         <v>22077</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2042,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2088,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2111,7 @@
         <v>7398</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2180,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2226,7 @@
         <v>8852</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2232,7 +2249,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>62248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2295,7 @@
         <v>38617</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2301,12 +2318,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>72892</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2369,7 @@
         <v>123177</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2392,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2398,7 +2415,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2438,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2484,7 @@
         <v>34802</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -2490,7 +2507,7 @@
         <v>34657</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -2513,7 +2530,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2536,7 +2553,7 @@
         <v>10897</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2599,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2622,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2651,7 +2668,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -2674,12 +2691,12 @@
         <v>245898</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2702,7 +2719,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>117675</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2765,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2811,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2834,7 @@
         <v>217546</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2840,12 +2857,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2868,7 +2885,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2891,7 +2908,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2914,7 +2931,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2944,21 +2961,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13558E2-00A1-4977-A88F-59E267D57995}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="41.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D1" s="6">
         <v>2015</v>
@@ -2986,8 +3003,11 @@
       <c r="I1" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1000</v>
       </c>
@@ -3017,7 +3037,7 @@
         <v>7388</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1100</v>
       </c>
@@ -3026,7 +3046,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1110</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1120</v>
       </c>
@@ -3086,7 +3106,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1200</v>
       </c>
@@ -3116,7 +3136,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1300</v>
       </c>
@@ -3146,7 +3166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1400</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1500</v>
       </c>
@@ -3203,7 +3223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2000</v>
       </c>
@@ -3233,7 +3253,7 @@
         <v>118146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2100</v>
       </c>
@@ -3242,7 +3262,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2101</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2102</v>
       </c>
@@ -3302,7 +3322,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2103</v>
       </c>
@@ -3332,7 +3352,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2104</v>
       </c>
@@ -3362,7 +3382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2105</v>
       </c>
@@ -3392,26 +3412,26 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2200</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="20">
         <f>SUM(C18:C40)</f>
         <v>116589.09085071349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2201</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="20">
         <f t="shared" ref="C18:C40" si="0">I18/$I$80*$C$80</f>
         <v>17667.596425966785</v>
       </c>
@@ -3433,15 +3453,16 @@
       <c r="I18" s="4">
         <v>13889</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>2202</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>4255.0298829907761</v>
       </c>
@@ -3464,14 +3485,14 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>2203</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="20">
         <f t="shared" si="0"/>
         <v>241.69078558094094</v>
       </c>
@@ -3494,14 +3515,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2204</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>8423.5599058788994</v>
       </c>
@@ -3524,14 +3545,14 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2205</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>4117.6477522395044</v>
       </c>
@@ -3554,14 +3575,14 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2206</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>4509.4412362338717</v>
       </c>
@@ -3584,14 +3605,14 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>2207</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>6093.1519101721424</v>
       </c>
@@ -3614,14 +3635,14 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>2208</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>3788.1850497896953</v>
       </c>
@@ -3644,14 +3665,14 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2209</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>454.12426553892584</v>
       </c>
@@ -3674,14 +3695,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2210</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>231.51433145121709</v>
       </c>
@@ -3704,14 +3725,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>2211</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="20">
         <f t="shared" si="0"/>
         <v>2823.9660209983626</v>
       </c>
@@ -3734,14 +3755,14 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>2212</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>9717.2416371200416</v>
       </c>
@@ -3764,14 +3785,14 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>2213</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="20">
         <f t="shared" si="0"/>
         <v>14496.358907791593</v>
       </c>
@@ -3794,14 +3815,14 @@
         <v>11396</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>2214</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="20">
         <f t="shared" si="0"/>
         <v>10902.798543232866</v>
       </c>
@@ -3824,14 +3845,14 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>2215</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="20">
         <f t="shared" si="0"/>
         <v>11009.651311594967</v>
       </c>
@@ -3854,14 +3875,14 @@
         <v>8655</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>2216</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="20">
         <f t="shared" si="0"/>
         <v>2077.2686992298763</v>
       </c>
@@ -3884,14 +3905,14 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>2217</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="20">
         <f t="shared" si="0"/>
         <v>3325.1563868872609</v>
       </c>
@@ -3914,14 +3935,14 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>2218</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="20">
         <f t="shared" si="0"/>
         <v>8474.4421765275183</v>
       </c>
@@ -3944,14 +3965,14 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>2219</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="20">
         <f t="shared" si="0"/>
         <v>1152.4834301912235</v>
       </c>
@@ -3974,14 +3995,14 @@
         <v>906</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>2220</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="20">
         <f t="shared" si="0"/>
         <v>465.57277643486515</v>
       </c>
@@ -4004,14 +4025,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>2221</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="20">
         <f t="shared" si="0"/>
         <v>962.94697202511725</v>
       </c>
@@ -4034,14 +4055,14 @@
         <v>757</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2222</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="20">
         <f t="shared" si="0"/>
         <v>465.57277643486515</v>
       </c>
@@ -4064,15 +4085,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>2223</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="12">
-        <f t="shared" si="0"/>
+      <c r="C40" s="20">
+        <f>I40/$I$80*$C$80</f>
         <v>933.68966640216138</v>
       </c>
       <c r="D40" s="4">
@@ -4094,7 +4115,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>2300</v>
       </c>
@@ -4102,7 +4123,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>2301</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>2302</v>
       </c>
@@ -4162,7 +4183,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>2303</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>2400</v>
       </c>
@@ -4201,7 +4222,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>2410</v>
       </c>
@@ -4231,7 +4252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>2420</v>
       </c>
@@ -4261,7 +4282,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>2430</v>
       </c>
@@ -4291,7 +4312,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>2500</v>
       </c>
@@ -4321,7 +4342,7 @@
         <v>13476</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>3000</v>
       </c>
@@ -4351,7 +4372,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>3100</v>
       </c>
@@ -4360,7 +4381,7 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>3101</v>
       </c>
@@ -4390,7 +4411,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>3102</v>
       </c>
@@ -4420,7 +4441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>3200</v>
       </c>
@@ -4429,7 +4450,7 @@
       </c>
       <c r="C54" s="16"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>3210</v>
       </c>
@@ -4459,7 +4480,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>3220</v>
       </c>
@@ -4489,7 +4510,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>3230</v>
       </c>
@@ -4519,7 +4540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>4000</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>73158</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>4100</v>
       </c>
@@ -4579,7 +4600,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>4300</v>
       </c>
@@ -4609,7 +4630,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>4400</v>
       </c>
@@ -4618,7 +4639,7 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>4401</v>
       </c>
@@ -4648,7 +4669,7 @@
         <v>50753</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>4402</v>
       </c>
@@ -4678,7 +4699,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>5000</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>5100</v>
       </c>
@@ -4717,7 +4738,7 @@
       </c>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>5101</v>
       </c>
@@ -4747,7 +4768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>5102</v>
       </c>
@@ -4777,7 +4798,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>5103</v>
       </c>
@@ -4807,7 +4828,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>5104</v>
       </c>
@@ -4837,7 +4858,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>5200</v>
       </c>
@@ -4867,7 +4888,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>5300</v>
       </c>
@@ -4876,7 +4897,7 @@
       </c>
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>5301</v>
       </c>
@@ -4906,7 +4927,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>5302</v>
       </c>
@@ -4936,7 +4957,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>5400</v>
       </c>
@@ -4945,7 +4966,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>5401</v>
       </c>
@@ -4975,7 +4996,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>5402</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>5403</v>
       </c>
@@ -5035,7 +5056,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>5404</v>
       </c>
@@ -5065,7 +5086,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>5500</v>
       </c>
@@ -5095,12 +5116,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C80" s="15">
-        <f>[1]yearly_full_release_long_format!$P$335108*1000</f>
+        <f>[1]yearly_full_release_long_format!$I$16*1000</f>
         <v>277330</v>
       </c>
       <c r="D80" s="6">
@@ -5135,12 +5156,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5148,7 +5169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -5156,7 +5177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -5172,7 +5193,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -5180,7 +5201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>134</v>
       </c>
